--- a/Список уч.гр. Р211.xlsx
+++ b/Список уч.гр. Р211.xlsx
@@ -807,13 +807,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -823,6 +816,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -870,37 +871,41 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1210,1566 +1215,1566 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A16:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="32.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="90.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="28.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="21" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="4.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="90.42578125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="18" style="7" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="28.140625" style="7" customWidth="1"/>
+    <col min="18" max="18" width="21.7109375" style="7" customWidth="1"/>
+    <col min="19" max="19" width="21" style="7" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" style="7" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" style="7" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" style="7" customWidth="1"/>
+    <col min="23" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="16" spans="1:21" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:21" ht="81" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="O16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="P16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="Q16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="R16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="S16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="T16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="U16" s="2" t="s">
+      <c r="U16" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="81" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+    <row r="17" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="8">
         <v>38448</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="1">
         <v>3818</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="1">
         <v>271613</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="2">
         <v>772024432350</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="2">
         <v>7795499743000150</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="1">
         <v>89623775296</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="Q17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="R17" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3" t="s">
+      <c r="S17" s="1"/>
+      <c r="T17" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="U17" s="3"/>
+      <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:21" ht="101.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+    <row r="18" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="8">
         <v>38640</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="1">
         <v>3819</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="1">
         <v>263149</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="2">
         <v>461001586540</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="2">
         <v>4689499734000110</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="1">
         <v>89513155068</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="Q18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3" t="s">
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="1">
         <v>89510808492</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="81" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+    <row r="19" spans="1:21" ht="81" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="8">
         <v>38391</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="1">
         <v>3818</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="1">
         <v>222125</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="2">
         <v>46003307000</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="2">
         <v>4697499741000020</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="1">
         <v>89092396090</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="Q19" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3" t="s">
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="U19" s="3">
+      <c r="U19" s="1">
         <v>89623782771</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="101.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+    <row r="20" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="8">
         <v>38383</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="1">
         <v>1518</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="1">
         <v>418705</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="2">
         <v>325503516306</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="2">
         <v>3298499768000050</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="1">
         <v>89003747617</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="Q20" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="R20" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="1">
         <v>89051760627</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="T20" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="1">
         <v>89066999458</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="81" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>5</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="8">
         <v>38774</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="1">
         <v>3819</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="1">
         <v>274357</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="2">
         <v>461304084927</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="2">
         <v>4697399773000090</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="1">
         <v>89510878189</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="Q21" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3" t="s">
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="1">
         <v>89969439883</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="81" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+    <row r="22" spans="1:21" ht="81" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="8">
         <v>38372</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="1">
         <v>3818</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="1">
         <v>213919</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="2">
         <v>461001457680</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="2">
         <v>4698499729000110</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="1">
         <v>89066934959</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="Q22" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="R22" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="1">
         <v>89030271767</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="T22" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="1">
         <v>89030272161</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="81" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+    <row r="23" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>7</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="8">
         <v>38573</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="1">
         <v>7119</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="1">
         <v>460550</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="2">
         <v>720320184574</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="2">
         <v>7291499740000180</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="1">
         <v>89827802724</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="Q23" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="R23" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="1">
         <v>89519757891</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="T23" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U23" s="1">
         <v>89199465683</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="101.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+    <row r="24" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>8</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="8">
         <v>38625</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="1">
         <v>1519</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="1">
         <v>455194</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="2">
         <v>325200751646</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="2">
         <v>3290499719000060</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="1">
         <v>89206026808</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="Q24" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="R24" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="1">
         <v>89208450253</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="T24" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24" s="1">
         <v>89208540236</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="81" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+    <row r="25" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>9</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="8">
         <v>38602</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="1">
         <v>319</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="1">
         <v>432068</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="M25" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="2">
         <v>262516495499</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="2">
         <v>2390499742000640</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="1">
         <v>89054080968</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="Q25" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="R25" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S25" s="1">
         <v>89676500046</v>
       </c>
-      <c r="T25" s="3" t="s">
+      <c r="T25" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="U25" s="3">
+      <c r="U25" s="1">
         <v>89180382888</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="81" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+    <row r="26" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>10</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="8">
         <v>38755</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="1">
         <v>3818</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="1">
         <v>271407</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="M26" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26" s="2">
         <v>462003454252</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="2">
         <v>4697399792000110</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="1">
         <v>89307666340</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="Q26" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="R26" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="1">
         <v>89202665383</v>
       </c>
-      <c r="T26" s="3" t="s">
+      <c r="T26" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26" s="1">
         <v>89307699624</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="101.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>11</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="8">
         <v>38420</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="1">
         <v>1518</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="1">
         <v>415000</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="M27" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" s="2">
         <v>324900154932</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="2">
         <v>329649970000039</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="1">
         <v>89506964319</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="Q27" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="R27" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27" s="1">
         <v>89102318320</v>
       </c>
-      <c r="T27" s="3" t="s">
+      <c r="T27" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27" s="1">
         <v>89192938912</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="81" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+    <row r="28" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>12</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="8">
         <v>38748</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="1">
         <v>3819</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="1">
         <v>263568</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="M28" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="N28" s="5">
+      <c r="N28" s="2">
         <v>460304229120</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="2">
         <v>89508739962</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="1">
         <v>89508739962</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="Q28" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3" t="s">
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="U28" s="3">
+      <c r="U28" s="1">
         <v>89202658661</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="101.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+    <row r="29" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>13</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="8">
         <v>38636</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="1">
         <v>3819</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="1">
         <v>266100</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N29" s="2">
         <v>461502568334</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="2">
         <v>3189499738000170</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="1">
         <v>89606908974</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="R29" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="1">
         <v>89513123221</v>
       </c>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="1:21" ht="81" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+    <row r="30" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>14</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="8">
         <v>38534</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="1">
         <v>3819</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="1">
         <v>251053</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="M30" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="N30" s="5">
+      <c r="N30" s="2">
         <v>323306530964</v>
       </c>
-      <c r="O30" s="5">
+      <c r="O30" s="2">
         <v>3293499798000100</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30" s="1">
         <v>89308552750</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="Q30" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="R30" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="S30" s="3" t="s">
+      <c r="S30" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="T30" s="3" t="s">
+      <c r="T30" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="U30" s="3">
+      <c r="U30" s="1">
         <v>89207058771</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="81" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+    <row r="31" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>15</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="8">
         <v>38488</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="1">
         <v>1519</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="1">
         <v>434585</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="M31" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="2">
         <v>324100314217</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="2">
         <v>201917641</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P31" s="1">
         <v>89803381455</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="Q31" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="R31" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="S31" s="3">
+      <c r="S31" s="1">
         <v>89107356578</v>
       </c>
-      <c r="T31" s="3" t="s">
+      <c r="T31" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="U31" s="3">
+      <c r="U31" s="1">
         <v>89107356598</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="81" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+    <row r="32" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>16</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="8">
         <v>38411</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="1">
         <v>1518</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="1">
         <v>424924</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="M32" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32" s="2">
         <v>323306398635</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" s="2">
         <v>3297499721000110</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="1">
         <v>89003634094</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="Q32" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="R32" s="3" t="s">
+      <c r="R32" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="1">
         <v>89529677404</v>
       </c>
-      <c r="T32" s="3" t="s">
+      <c r="T32" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="U32" s="3">
+      <c r="U32" s="1">
         <v>89529677403</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="81" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+    <row r="33" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>17</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="8">
         <v>38763</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="1">
         <v>1519</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="1">
         <v>474228</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="L33" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="M33" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N33" s="5">
+      <c r="N33" s="2">
         <v>325900747178</v>
       </c>
-      <c r="O33" s="5">
+      <c r="O33" s="2">
         <v>3297399734000180</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="1">
         <v>89532824755</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="Q33" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3" t="s">
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="U33" s="3">
+      <c r="U33" s="1">
         <v>89208357369</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="101.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+    <row r="34" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>18</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="8">
         <v>38620</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="1">
         <v>3819</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="1">
         <v>252434</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="L34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="M34" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34" s="2">
         <v>462003435309</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="2">
         <v>4690499724000120</v>
       </c>
-      <c r="P34" s="3">
+      <c r="P34" s="1">
         <v>89207329675</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="Q34" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="R34" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="S34" s="3">
+      <c r="S34" s="1">
         <v>89513143685</v>
       </c>
-      <c r="T34" s="3" t="s">
+      <c r="T34" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="U34" s="3">
+      <c r="U34" s="1">
         <v>89202655680</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="81" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+    <row r="35" spans="1:21" ht="81" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>19</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="8">
         <v>38752</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="1">
         <v>3819</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="1">
         <v>271383</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="M35" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="N35" s="5" t="s">
+      <c r="N35" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="O35" s="5">
+      <c r="O35" s="2">
         <v>4697399745000050</v>
       </c>
-      <c r="P35" s="6">
+      <c r="P35" s="3">
         <v>89102790750</v>
       </c>
       <c r="Q35" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="R35" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="S35" s="3" t="s">
+      <c r="S35" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="T35" s="3" t="s">
+      <c r="T35" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="U35" s="3" t="s">
+      <c r="U35" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="10" customFormat="1" ht="101.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+    <row r="36" spans="1:21" s="10" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>20</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="9">
         <v>38441</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="4">
         <v>3819</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="4">
         <v>230819</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="4">
         <v>43571</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J36" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="K36" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="L36" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M36" s="7" t="s">
+      <c r="M36" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N36" s="5">
         <v>460502866339</v>
       </c>
-      <c r="O36" s="9">
+      <c r="O36" s="5">
         <v>469649719000031</v>
       </c>
-      <c r="P36" s="7">
+      <c r="P36" s="4">
         <v>89513115117</v>
       </c>
-      <c r="Q36" s="7" t="s">
+      <c r="Q36" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="R36" s="7" t="s">
+      <c r="R36" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="S36" s="7">
+      <c r="S36" s="4">
         <v>89508775683</v>
       </c>
-      <c r="T36" s="7" t="s">
+      <c r="T36" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="U36" s="7">
+      <c r="U36" s="4">
         <v>89045258327</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="60.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+    <row r="37" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>21</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="8">
         <v>38518</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="1">
         <v>7119</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="1">
         <v>446348</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="M37" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N37" s="2">
         <v>720212938601</v>
       </c>
-      <c r="O37" s="5">
+      <c r="O37" s="2">
         <v>7293499734000120</v>
       </c>
-      <c r="P37" s="3">
+      <c r="P37" s="1">
         <v>89523498045</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="Q37" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="R37" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="S37" s="3">
+      <c r="S37" s="1">
         <v>89292606371</v>
       </c>
-      <c r="T37" s="3" t="s">
+      <c r="T37" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="U37" s="3">
+      <c r="U37" s="1">
         <v>89044923060</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="81" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+    <row r="38" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>22</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="8">
         <v>38754</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="1">
         <v>1519</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="1">
         <v>470460</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="M38" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N38" s="2">
         <v>324900455305</v>
       </c>
-      <c r="O38" s="5">
+      <c r="O38" s="2">
         <v>3297399743000160</v>
       </c>
-      <c r="P38" s="3">
+      <c r="P38" s="1">
         <v>89003745775</v>
       </c>
-      <c r="Q38" s="3" t="s">
+      <c r="Q38" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="R38" s="3" t="s">
+      <c r="R38" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="S38" s="3">
+      <c r="S38" s="1">
         <v>8065088097</v>
       </c>
-      <c r="T38" s="3" t="s">
+      <c r="T38" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="U38" s="3">
+      <c r="U38" s="1">
         <v>89532998172</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="81" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+    <row r="39" spans="1:21" ht="81" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>23</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="8">
         <v>38651</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="1">
         <v>3819</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="1">
         <v>252543</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="K39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="L39" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="M39" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39" s="2">
         <v>462003524157</v>
       </c>
-      <c r="O39" s="5">
+      <c r="O39" s="2">
         <v>4689499723000120</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P39" s="1">
         <v>89969445954</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="Q39" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="R39" s="3" t="s">
+      <c r="R39" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="S39" s="3">
+      <c r="S39" s="1">
         <v>89155187177</v>
       </c>
-      <c r="T39" s="3" t="s">
+      <c r="T39" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="U39" s="3">
+      <c r="U39" s="1">
         <v>89202611558</v>
       </c>
     </row>

--- a/Список уч.гр. Р211.xlsx
+++ b/Список уч.гр. Р211.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Данные для машбюро\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="256">
   <si>
     <t>Фамилия</t>
   </si>
@@ -52,15 +57,6 @@
     <t>Эл. почта</t>
   </si>
   <si>
-    <t xml:space="preserve">  Ф.И.О.          (отец)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Номер телефона</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ф.И.О.             (мать)  </t>
-  </si>
-  <si>
     <t>Дата выдачи паспорта</t>
   </si>
   <si>
@@ -791,6 +787,18 @@
   </si>
   <si>
     <t>zenfen04@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИО             (мать)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ф.И.О.          (отец)   </t>
+  </si>
+  <si>
+    <t>16.04.2019</t>
+  </si>
+  <si>
+    <t>89038711038</t>
   </si>
 </sst>
 </file>
@@ -840,7 +848,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,7 +881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -882,12 +890,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -899,14 +901,23 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -969,7 +980,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1004,7 +1015,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1213,1596 +1224,1599 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A16:U39"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="32.140625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="90.42578125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="18" style="7" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" style="7" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="28.140625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="21.7109375" style="7" customWidth="1"/>
-    <col min="19" max="19" width="21" style="7" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" style="7" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" style="7" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" style="7" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="7"/>
+    <col min="1" max="1" width="4.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="90.42578125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="18" style="5" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="28.140625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="21.7109375" style="5" customWidth="1"/>
+    <col min="19" max="19" width="21" style="5" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" style="5" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" style="5" customWidth="1"/>
+    <col min="23" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="16" spans="1:21" ht="81" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="1" spans="1:21" ht="81" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6">
+        <v>38448</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3818</v>
+      </c>
+      <c r="H2" s="1">
+        <v>271613</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="2">
+        <v>772024432350</v>
+      </c>
+      <c r="O2" s="2">
+        <v>7795499743000150</v>
+      </c>
+      <c r="P2" s="1">
+        <v>89623775296</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="6">
+        <v>38640</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3819</v>
+      </c>
+      <c r="H3" s="1">
+        <v>263149</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2">
+        <v>461001586540</v>
+      </c>
+      <c r="O3" s="2">
+        <v>4689499734000110</v>
+      </c>
+      <c r="P3" s="1">
+        <v>89513155068</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="1">
+        <v>89510808492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6">
+        <v>38391</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3818</v>
+      </c>
+      <c r="H4" s="1">
+        <v>222125</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N4" s="2">
+        <v>46003307000</v>
+      </c>
+      <c r="O4" s="2">
+        <v>4697499741000020</v>
+      </c>
+      <c r="P4" s="1">
+        <v>89092396090</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U4" s="1">
+        <v>89623782771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="6">
+        <v>38383</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1518</v>
+      </c>
+      <c r="H5" s="1">
+        <v>418705</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N5" s="2">
+        <v>325503516306</v>
+      </c>
+      <c r="O5" s="2">
+        <v>3298499768000050</v>
+      </c>
+      <c r="P5" s="1">
+        <v>89003747617</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="S5" s="1">
+        <v>89051760627</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="U5" s="1">
+        <v>89066999458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="6">
+        <v>38774</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3819</v>
+      </c>
+      <c r="H6" s="1">
+        <v>274357</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N6" s="2">
+        <v>461304084927</v>
+      </c>
+      <c r="O6" s="2">
+        <v>4697399773000090</v>
+      </c>
+      <c r="P6" s="1">
+        <v>89510878189</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U6" s="1">
+        <v>89969439883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="81" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="6">
+        <v>38372</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3818</v>
+      </c>
+      <c r="H7" s="1">
+        <v>213919</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N7" s="2">
+        <v>461001457680</v>
+      </c>
+      <c r="O7" s="2">
+        <v>4698499729000110</v>
+      </c>
+      <c r="P7" s="1">
+        <v>89066934959</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="S7" s="1">
+        <v>89030271767</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U7" s="1">
+        <v>89030272161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="6">
+        <v>38573</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7119</v>
+      </c>
+      <c r="H8" s="1">
+        <v>460550</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N8" s="2">
+        <v>720320184574</v>
+      </c>
+      <c r="O8" s="2">
+        <v>7291499740000180</v>
+      </c>
+      <c r="P8" s="1">
+        <v>89827802724</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="S8" s="1">
+        <v>89519757891</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="U8" s="1">
+        <v>89199465683</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="6">
+        <v>38625</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1519</v>
+      </c>
+      <c r="H9" s="1">
+        <v>455194</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N9" s="2">
+        <v>325200751646</v>
+      </c>
+      <c r="O9" s="2">
+        <v>3290499719000060</v>
+      </c>
+      <c r="P9" s="1">
+        <v>89206026808</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="S9" s="1">
+        <v>89208450253</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="U9" s="1">
+        <v>89208540236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="6">
+        <v>38602</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="1">
+        <v>319</v>
+      </c>
+      <c r="H10" s="1">
+        <v>432068</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N10" s="2">
+        <v>262516495499</v>
+      </c>
+      <c r="O10" s="2">
+        <v>2390499742000640</v>
+      </c>
+      <c r="P10" s="1">
+        <v>89054080968</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="S10" s="1">
+        <v>89676500046</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="U10" s="1">
+        <v>89180382888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="6">
+        <v>38755</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3818</v>
+      </c>
+      <c r="H11" s="1">
+        <v>271407</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N11" s="2">
+        <v>462003454252</v>
+      </c>
+      <c r="O11" s="2">
+        <v>4697399792000110</v>
+      </c>
+      <c r="P11" s="1">
+        <v>89307666340</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="S11" s="1">
+        <v>89202665383</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="U11" s="1">
+        <v>89307699624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="B12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="6">
+        <v>38420</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1518</v>
+      </c>
+      <c r="H12" s="1">
+        <v>415000</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N12" s="2">
+        <v>324900154932</v>
+      </c>
+      <c r="O12" s="2">
+        <v>329649970000039</v>
+      </c>
+      <c r="P12" s="1">
+        <v>89506964319</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="S12" s="1">
+        <v>89102318320</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="U12" s="1">
+        <v>89192938912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="B13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="6">
+        <v>38748</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3819</v>
+      </c>
+      <c r="H13" s="1">
+        <v>263568</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N13" s="2">
+        <v>460304229120</v>
+      </c>
+      <c r="O13" s="2">
+        <v>89508739962</v>
+      </c>
+      <c r="P13" s="1">
+        <v>89508739962</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U13" s="1">
+        <v>89202658661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O16" s="6" t="s">
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="6">
+        <v>38636</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3819</v>
+      </c>
+      <c r="H14" s="1">
+        <v>266100</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N14" s="2">
+        <v>461502568334</v>
+      </c>
+      <c r="O14" s="2">
+        <v>3189499738000170</v>
+      </c>
+      <c r="P14" s="1">
+        <v>89606908974</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="S14" s="1">
+        <v>89513123221</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="6">
+        <v>38534</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3819</v>
+      </c>
+      <c r="H15" s="1">
+        <v>251053</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N15" s="2">
+        <v>323306530964</v>
+      </c>
+      <c r="O15" s="2">
+        <v>3293499798000100</v>
+      </c>
+      <c r="P15" s="1">
+        <v>89308552750</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="U15" s="1">
+        <v>89207058771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="P16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="S16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="T16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U16" s="6" t="s">
-        <v>6</v>
+      <c r="B16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="6">
+        <v>38488</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1519</v>
+      </c>
+      <c r="H16" s="1">
+        <v>434585</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N16" s="2">
+        <v>324100314217</v>
+      </c>
+      <c r="O16" s="2">
+        <v>201917641</v>
+      </c>
+      <c r="P16" s="1">
+        <v>89803381455</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="S16" s="1">
+        <v>89107356578</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="U16" s="1">
+        <v>89107356598</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="8">
-        <v>38448</v>
+        <v>19</v>
+      </c>
+      <c r="E17" s="6">
+        <v>38411</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G17" s="1">
-        <v>3818</v>
+        <v>1518</v>
       </c>
       <c r="H17" s="1">
-        <v>271613</v>
+        <v>424924</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="N17" s="2">
-        <v>772024432350</v>
+        <v>323306398635</v>
       </c>
       <c r="O17" s="2">
-        <v>7795499743000150</v>
+        <v>3297499721000110</v>
       </c>
       <c r="P17" s="1">
-        <v>89623775296</v>
+        <v>89003634094</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>26</v>
+        <v>193</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="S17" s="1"/>
+        <v>194</v>
+      </c>
+      <c r="S17" s="1">
+        <v>89529677404</v>
+      </c>
       <c r="T17" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="U17" s="1"/>
+        <v>195</v>
+      </c>
+      <c r="U17" s="1">
+        <v>89529677403</v>
+      </c>
     </row>
     <row r="18" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="8">
-        <v>38640</v>
+        <v>52</v>
+      </c>
+      <c r="E18" s="6">
+        <v>38763</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c r="G18" s="1">
-        <v>3819</v>
+        <v>1519</v>
       </c>
       <c r="H18" s="1">
-        <v>263149</v>
+        <v>474228</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="N18" s="2">
-        <v>461001586540</v>
+        <v>325900747178</v>
       </c>
       <c r="O18" s="2">
-        <v>4689499734000110</v>
+        <v>3297399734000180</v>
       </c>
       <c r="P18" s="1">
-        <v>89513155068</v>
+        <v>89532824755</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1" t="s">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="U18" s="1">
-        <v>89510808492</v>
+        <v>89208357369</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="81" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="6">
+        <v>38620</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="8">
-        <v>38391</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="G19" s="1">
-        <v>3818</v>
+        <v>3819</v>
       </c>
       <c r="H19" s="1">
-        <v>222125</v>
+        <v>252434</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="N19" s="2">
-        <v>46003307000</v>
+        <v>462003435309</v>
       </c>
       <c r="O19" s="2">
-        <v>4697499741000020</v>
+        <v>4690499724000120</v>
       </c>
       <c r="P19" s="1">
-        <v>89092396090</v>
+        <v>89207329675</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="S19" s="1">
+        <v>89513143685</v>
+      </c>
       <c r="T19" s="1" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="U19" s="1">
-        <v>89623782771</v>
+        <v>89202655680</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>236</v>
+        <v>112</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="8">
-        <v>38383</v>
+        <v>113</v>
+      </c>
+      <c r="E20" s="6">
+        <v>38752</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="G20" s="1">
-        <v>1518</v>
+        <v>3819</v>
       </c>
       <c r="H20" s="1">
-        <v>418705</v>
+        <v>271383</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="N20" s="2">
-        <v>325503516306</v>
+        <v>144</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="O20" s="2">
-        <v>3298499768000050</v>
-      </c>
-      <c r="P20" s="1">
-        <v>89003747617</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>163</v>
+        <v>4697399745000050</v>
+      </c>
+      <c r="P20" s="3">
+        <v>89102790750</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>251</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="S20" s="1">
-        <v>89051760627</v>
+        <v>201</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="U20" s="1">
-        <v>89066999458</v>
+        <v>202</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="8">
-        <v>38774</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G21" s="1">
+    <row r="21" spans="1:21" s="12" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="10">
+        <v>38441</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="9">
         <v>3819</v>
       </c>
-      <c r="H21" s="1">
-        <v>274357</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="N21" s="2">
-        <v>461304084927</v>
-      </c>
-      <c r="O21" s="2">
-        <v>4697399773000090</v>
-      </c>
-      <c r="P21" s="1">
-        <v>89510878189</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="U21" s="1">
-        <v>89969439883</v>
+      <c r="H21" s="9">
+        <v>230819</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="N21" s="11">
+        <v>460502866339</v>
+      </c>
+      <c r="O21" s="11">
+        <v>469649719000031</v>
+      </c>
+      <c r="P21" s="9">
+        <v>89513115117</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="S21" s="9">
+        <v>89508775683</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="U21" s="9">
+        <v>89045258327</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="81" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="8">
-        <v>38372</v>
+        <v>130</v>
+      </c>
+      <c r="E22" s="6">
+        <v>38518</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="G22" s="1">
-        <v>3818</v>
+        <v>7119</v>
       </c>
       <c r="H22" s="1">
-        <v>213919</v>
+        <v>446348</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="N22" s="2">
-        <v>461001457680</v>
+        <v>720212938601</v>
       </c>
       <c r="O22" s="2">
-        <v>4698499729000110</v>
+        <v>7293499734000120</v>
       </c>
       <c r="P22" s="1">
-        <v>89066934959</v>
+        <v>89523498045</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="S22" s="1">
-        <v>89030271767</v>
+        <v>89292606371</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="U22" s="1">
-        <v>89030272161</v>
+        <v>89044923060</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="8">
-        <v>38573</v>
+        <v>135</v>
+      </c>
+      <c r="E23" s="6">
+        <v>38754</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G23" s="1">
-        <v>7119</v>
+        <v>1519</v>
       </c>
       <c r="H23" s="1">
-        <v>460550</v>
+        <v>470460</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="N23" s="2">
-        <v>720320184574</v>
+        <v>324900455305</v>
       </c>
       <c r="O23" s="2">
-        <v>7291499740000180</v>
+        <v>3297399743000160</v>
       </c>
       <c r="P23" s="1">
-        <v>89827802724</v>
+        <v>89003745775</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="S23" s="1">
-        <v>89519757891</v>
+        <v>8065088097</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="U23" s="1">
-        <v>89199465683</v>
+        <v>89532998172</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="81" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="8">
-        <v>38625</v>
+        <v>19</v>
+      </c>
+      <c r="E24" s="6">
+        <v>38651</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="G24" s="1">
-        <v>1519</v>
+        <v>3819</v>
       </c>
       <c r="H24" s="1">
-        <v>455194</v>
+        <v>252543</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N24" s="2">
-        <v>325200751646</v>
+        <v>462003524157</v>
       </c>
       <c r="O24" s="2">
-        <v>3290499719000060</v>
+        <v>4689499723000120</v>
       </c>
       <c r="P24" s="1">
-        <v>89206026808</v>
+        <v>89969445954</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="S24" s="1">
-        <v>89208450253</v>
+        <v>89155187177</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="U24" s="1">
-        <v>89208540236</v>
+        <v>89202611558</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>9</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="8">
-        <v>38602</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="1">
-        <v>319</v>
-      </c>
-      <c r="H25" s="1">
-        <v>432068</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N25" s="2">
-        <v>262516495499</v>
-      </c>
-      <c r="O25" s="2">
-        <v>2390499742000640</v>
-      </c>
-      <c r="P25" s="1">
-        <v>89054080968</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="S25" s="1">
-        <v>89676500046</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="U25" s="1">
-        <v>89180382888</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>10</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="8">
-        <v>38755</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G26" s="1">
-        <v>3818</v>
-      </c>
-      <c r="H26" s="1">
-        <v>271407</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N26" s="2">
-        <v>462003454252</v>
-      </c>
-      <c r="O26" s="2">
-        <v>4697399792000110</v>
-      </c>
-      <c r="P26" s="1">
-        <v>89307666340</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="S26" s="1">
-        <v>89202665383</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="U26" s="1">
-        <v>89307699624</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>11</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="8">
-        <v>38420</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1518</v>
-      </c>
-      <c r="H27" s="1">
-        <v>415000</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="N27" s="2">
-        <v>324900154932</v>
-      </c>
-      <c r="O27" s="2">
-        <v>329649970000039</v>
-      </c>
-      <c r="P27" s="1">
-        <v>89506964319</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="S27" s="1">
-        <v>89102318320</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="U27" s="1">
-        <v>89192938912</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>12</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="8">
-        <v>38748</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="1">
-        <v>3819</v>
-      </c>
-      <c r="H28" s="1">
-        <v>263568</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="N28" s="2">
-        <v>460304229120</v>
-      </c>
-      <c r="O28" s="2">
-        <v>89508739962</v>
-      </c>
-      <c r="P28" s="1">
-        <v>89508739962</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="U28" s="1">
-        <v>89202658661</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>13</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="8">
-        <v>38636</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" s="1">
-        <v>3819</v>
-      </c>
-      <c r="H29" s="1">
-        <v>266100</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="N29" s="2">
-        <v>461502568334</v>
-      </c>
-      <c r="O29" s="2">
-        <v>3189499738000170</v>
-      </c>
-      <c r="P29" s="1">
-        <v>89606908974</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="S29" s="1">
-        <v>89513123221</v>
-      </c>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-    </row>
-    <row r="30" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>14</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="8">
-        <v>38534</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G30" s="1">
-        <v>3819</v>
-      </c>
-      <c r="H30" s="1">
-        <v>251053</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="N30" s="2">
-        <v>323306530964</v>
-      </c>
-      <c r="O30" s="2">
-        <v>3293499798000100</v>
-      </c>
-      <c r="P30" s="1">
-        <v>89308552750</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="U30" s="1">
-        <v>89207058771</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>15</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="8">
-        <v>38488</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1519</v>
-      </c>
-      <c r="H31" s="1">
-        <v>434585</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="N31" s="2">
-        <v>324100314217</v>
-      </c>
-      <c r="O31" s="2">
-        <v>201917641</v>
-      </c>
-      <c r="P31" s="1">
-        <v>89803381455</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="S31" s="1">
-        <v>89107356578</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="U31" s="1">
-        <v>89107356598</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>16</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="8">
-        <v>38411</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1518</v>
-      </c>
-      <c r="H32" s="1">
-        <v>424924</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N32" s="2">
-        <v>323306398635</v>
-      </c>
-      <c r="O32" s="2">
-        <v>3297499721000110</v>
-      </c>
-      <c r="P32" s="1">
-        <v>89003634094</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="S32" s="1">
-        <v>89529677404</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="U32" s="1">
-        <v>89529677403</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>17</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="8">
-        <v>38763</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1519</v>
-      </c>
-      <c r="H33" s="1">
-        <v>474228</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="N33" s="2">
-        <v>325900747178</v>
-      </c>
-      <c r="O33" s="2">
-        <v>3297399734000180</v>
-      </c>
-      <c r="P33" s="1">
-        <v>89532824755</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="U33" s="1">
-        <v>89208357369</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>18</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="8">
-        <v>38620</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="1">
-        <v>3819</v>
-      </c>
-      <c r="H34" s="1">
-        <v>252434</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="N34" s="2">
-        <v>462003435309</v>
-      </c>
-      <c r="O34" s="2">
-        <v>4690499724000120</v>
-      </c>
-      <c r="P34" s="1">
-        <v>89207329675</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="S34" s="1">
-        <v>89513143685</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="U34" s="1">
-        <v>89202655680</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="81" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>19</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35" s="8">
-        <v>38752</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G35" s="1">
-        <v>3819</v>
-      </c>
-      <c r="H35" s="1">
-        <v>271383</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="O35" s="2">
-        <v>4697399745000050</v>
-      </c>
-      <c r="P35" s="3">
-        <v>89102790750</v>
-      </c>
-      <c r="Q35" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" s="10" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>20</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E36" s="9">
-        <v>38441</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G36" s="4">
-        <v>3819</v>
-      </c>
-      <c r="H36" s="4">
-        <v>230819</v>
-      </c>
-      <c r="I36" s="4">
-        <v>43571</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="N36" s="5">
-        <v>460502866339</v>
-      </c>
-      <c r="O36" s="5">
-        <v>469649719000031</v>
-      </c>
-      <c r="P36" s="4">
-        <v>89513115117</v>
-      </c>
-      <c r="Q36" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="R36" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="S36" s="4">
-        <v>89508775683</v>
-      </c>
-      <c r="T36" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="U36" s="4">
-        <v>89045258327</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>21</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E37" s="8">
-        <v>38518</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G37" s="1">
-        <v>7119</v>
-      </c>
-      <c r="H37" s="1">
-        <v>446348</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="N37" s="2">
-        <v>720212938601</v>
-      </c>
-      <c r="O37" s="2">
-        <v>7293499734000120</v>
-      </c>
-      <c r="P37" s="1">
-        <v>89523498045</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="S37" s="1">
-        <v>89292606371</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="U37" s="1">
-        <v>89044923060</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>22</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" s="8">
-        <v>38754</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1519</v>
-      </c>
-      <c r="H38" s="1">
-        <v>470460</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="N38" s="2">
-        <v>324900455305</v>
-      </c>
-      <c r="O38" s="2">
-        <v>3297399743000160</v>
-      </c>
-      <c r="P38" s="1">
-        <v>89003745775</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="S38" s="1">
-        <v>8065088097</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="U38" s="1">
-        <v>89532998172</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="81" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>23</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="8">
-        <v>38651</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39" s="1">
-        <v>3819</v>
-      </c>
-      <c r="H39" s="1">
-        <v>252543</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="N39" s="2">
-        <v>462003524157</v>
-      </c>
-      <c r="O39" s="2">
-        <v>4689499723000120</v>
-      </c>
-      <c r="P39" s="1">
-        <v>89969445954</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="S39" s="1">
-        <v>89155187177</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="U39" s="1">
-        <v>89202611558</v>
-      </c>
-    </row>
+    <row r="36" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q17" r:id="rId1"/>
-    <hyperlink ref="Q18" r:id="rId2"/>
-    <hyperlink ref="Q25" r:id="rId3"/>
-    <hyperlink ref="Q19" r:id="rId4"/>
-    <hyperlink ref="Q20" r:id="rId5"/>
-    <hyperlink ref="Q21" r:id="rId6"/>
-    <hyperlink ref="Q22" r:id="rId7"/>
-    <hyperlink ref="Q23" r:id="rId8"/>
-    <hyperlink ref="Q26" r:id="rId9"/>
-    <hyperlink ref="Q27" r:id="rId10"/>
-    <hyperlink ref="Q28" r:id="rId11"/>
-    <hyperlink ref="Q29" r:id="rId12"/>
-    <hyperlink ref="Q30" r:id="rId13"/>
-    <hyperlink ref="Q31" r:id="rId14"/>
-    <hyperlink ref="Q32" r:id="rId15"/>
-    <hyperlink ref="Q33" r:id="rId16"/>
-    <hyperlink ref="Q34" r:id="rId17"/>
-    <hyperlink ref="Q35" r:id="rId18"/>
-    <hyperlink ref="Q36" r:id="rId19"/>
-    <hyperlink ref="Q24" r:id="rId20"/>
-    <hyperlink ref="Q38" r:id="rId21"/>
-    <hyperlink ref="Q39" r:id="rId22"/>
-    <hyperlink ref="Q37" r:id="rId23"/>
+    <hyperlink ref="Q2" r:id="rId1"/>
+    <hyperlink ref="Q3" r:id="rId2"/>
+    <hyperlink ref="Q10" r:id="rId3"/>
+    <hyperlink ref="Q4" r:id="rId4"/>
+    <hyperlink ref="Q5" r:id="rId5"/>
+    <hyperlink ref="Q6" r:id="rId6"/>
+    <hyperlink ref="Q7" r:id="rId7"/>
+    <hyperlink ref="Q8" r:id="rId8"/>
+    <hyperlink ref="Q11" r:id="rId9"/>
+    <hyperlink ref="Q12" r:id="rId10"/>
+    <hyperlink ref="Q13" r:id="rId11"/>
+    <hyperlink ref="Q14" r:id="rId12"/>
+    <hyperlink ref="Q15" r:id="rId13"/>
+    <hyperlink ref="Q16" r:id="rId14"/>
+    <hyperlink ref="Q17" r:id="rId15"/>
+    <hyperlink ref="Q18" r:id="rId16"/>
+    <hyperlink ref="Q19" r:id="rId17"/>
+    <hyperlink ref="Q20" r:id="rId18"/>
+    <hyperlink ref="Q21" r:id="rId19"/>
+    <hyperlink ref="Q9" r:id="rId20"/>
+    <hyperlink ref="Q23" r:id="rId21"/>
+    <hyperlink ref="Q24" r:id="rId22"/>
+    <hyperlink ref="Q22" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="19" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId24"/>
